--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:23:12+00:00</t>
+    <t>2025-05-05T15:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T15:47:55+00:00</t>
+    <t>2025-05-06T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:30:16+00:00</t>
+    <t>2025-05-12T16:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T16:48:36+00:00</t>
+    <t>2025-05-12T17:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:06:32+00:00</t>
+    <t>2025-05-12T17:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:31:52+00:00</t>
+    <t>2025-05-12T17:48:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6087" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6086" uniqueCount="944">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T17:48:32+00:00</t>
+    <t>2025-07-08T15:57:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1045,6 +1045,9 @@
   </si>
   <si>
     <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-code</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationCodeableConcept.id</t>
@@ -7568,13 +7571,11 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -7624,7 +7625,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>290</v>
@@ -7739,7 +7740,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>292</v>
@@ -7856,7 +7857,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>292</v>
@@ -7973,10 +7974,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -8005,7 +8006,7 @@
         <v>185</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>187</v>
@@ -8092,10 +8093,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -8211,10 +8212,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -8237,16 +8238,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -8296,7 +8297,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -8311,27 +8312,27 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8354,16 +8355,16 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -8413,7 +8414,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -8428,27 +8429,27 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>224</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8471,13 +8472,13 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -8528,7 +8529,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -8543,16 +8544,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -8560,10 +8561,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8675,10 +8676,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8792,13 +8793,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="C48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>19</v>
@@ -8820,13 +8821,13 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8909,10 +8910,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -9026,10 +9027,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9143,10 +9144,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9260,10 +9261,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -9377,10 +9378,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9403,13 +9404,13 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9460,7 +9461,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -9475,27 +9476,27 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9518,13 +9519,13 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -9575,7 +9576,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -9590,16 +9591,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>19</v>
@@ -9607,10 +9608,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9633,13 +9634,13 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9690,7 +9691,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9705,16 +9706,16 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>19</v>
@@ -9722,10 +9723,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9751,13 +9752,13 @@
         <v>167</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9786,10 +9787,10 @@
         <v>231</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>19</v>
@@ -9807,7 +9808,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9822,13 +9823,13 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -9839,10 +9840,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9865,13 +9866,13 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9922,7 +9923,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9943,10 +9944,10 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>19</v>
@@ -9954,10 +9955,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9983,13 +9984,13 @@
         <v>167</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -10018,10 +10019,10 @@
         <v>231</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -10039,7 +10040,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -10054,27 +10055,27 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10097,16 +10098,16 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -10156,7 +10157,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -10171,16 +10172,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>224</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>19</v>
@@ -10188,10 +10189,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10214,13 +10215,13 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -10271,7 +10272,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -10286,13 +10287,13 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -10303,10 +10304,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10332,10 +10333,10 @@
         <v>102</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10386,7 +10387,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -10407,7 +10408,7 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
@@ -10418,10 +10419,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10444,13 +10445,13 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10501,7 +10502,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -10516,13 +10517,13 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>19</v>
@@ -10533,10 +10534,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10562,14 +10563,14 @@
         <v>207</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>19</v>
@@ -10618,7 +10619,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10633,13 +10634,13 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>19</v>
@@ -10650,10 +10651,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10679,13 +10680,13 @@
         <v>167</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10714,10 +10715,10 @@
         <v>231</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -10735,7 +10736,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10756,7 +10757,7 @@
         <v>19</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>19</v>
@@ -10767,10 +10768,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10793,13 +10794,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10850,7 +10851,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10865,13 +10866,13 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>19</v>
@@ -10882,10 +10883,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10908,13 +10909,13 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10965,7 +10966,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10980,13 +10981,13 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>19</v>
@@ -10997,10 +10998,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11112,10 +11113,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11229,13 +11230,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="B69" t="s" s="2">
-        <v>468</v>
-      </c>
       <c r="C69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>19</v>
@@ -11257,16 +11258,16 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -11348,10 +11349,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11374,16 +11375,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11433,7 +11434,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -11454,7 +11455,7 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>19</v>
@@ -11465,10 +11466,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11491,13 +11492,13 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -11548,7 +11549,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11569,7 +11570,7 @@
         <v>19</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>19</v>
@@ -11580,10 +11581,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11606,13 +11607,13 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -11663,7 +11664,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -11684,7 +11685,7 @@
         <v>19</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>19</v>
@@ -11695,10 +11696,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11721,16 +11722,16 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11780,7 +11781,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11795,13 +11796,13 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>19</v>
@@ -11812,10 +11813,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11927,10 +11928,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12044,14 +12045,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -12073,10 +12074,10 @@
         <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>181</v>
@@ -12131,7 +12132,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -12163,10 +12164,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12189,17 +12190,17 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -12248,7 +12249,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -12269,21 +12270,21 @@
         <v>19</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12309,14 +12310,14 @@
         <v>148</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>19</v>
@@ -12365,7 +12366,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -12386,21 +12387,21 @@
         <v>19</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12426,16 +12427,16 @@
         <v>167</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>19</v>
@@ -12463,10 +12464,10 @@
         <v>231</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>19</v>
@@ -12484,7 +12485,7 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -12505,21 +12506,21 @@
         <v>19</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12545,10 +12546,10 @@
         <v>148</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12599,7 +12600,7 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12620,21 +12621,21 @@
         <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12657,19 +12658,19 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>19</v>
@@ -12718,7 +12719,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12739,7 +12740,7 @@
         <v>19</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>19</v>
@@ -12750,10 +12751,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12865,10 +12866,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12982,14 +12983,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -13011,10 +13012,10 @@
         <v>133</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>181</v>
@@ -13069,7 +13070,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -13101,10 +13102,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13127,17 +13128,17 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>19</v>
@@ -13186,7 +13187,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -13207,7 +13208,7 @@
         <v>19</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>19</v>
@@ -13218,10 +13219,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13244,17 +13245,17 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>19</v>
@@ -13303,7 +13304,7 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -13315,7 +13316,7 @@
         <v>19</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>19</v>
@@ -13324,7 +13325,7 @@
         <v>19</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>19</v>
@@ -13335,10 +13336,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13450,10 +13451,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13567,13 +13568,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="B89" t="s" s="2">
-        <v>560</v>
-      </c>
       <c r="C89" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>19</v>
@@ -13595,13 +13596,13 @@
         <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13684,10 +13685,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13710,13 +13711,13 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -13767,7 +13768,7 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13788,7 +13789,7 @@
         <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>19</v>
@@ -13799,10 +13800,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13825,19 +13826,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -13886,7 +13887,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13907,7 +13908,7 @@
         <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>19</v>
@@ -13918,10 +13919,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13944,13 +13945,13 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -14001,7 +14002,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -14022,7 +14023,7 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>19</v>
@@ -14033,10 +14034,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -14059,19 +14060,19 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>19</v>
@@ -14120,7 +14121,7 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -14141,7 +14142,7 @@
         <v>19</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>19</v>
@@ -14152,10 +14153,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -14178,19 +14179,19 @@
         <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>19</v>
@@ -14239,7 +14240,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -14260,7 +14261,7 @@
         <v>19</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>19</v>
@@ -14271,10 +14272,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14300,10 +14301,10 @@
         <v>108</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -14333,10 +14334,10 @@
         <v>220</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>19</v>
@@ -14354,7 +14355,7 @@
         <v>19</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -14375,7 +14376,7 @@
         <v>19</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>19</v>
@@ -14386,10 +14387,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14412,13 +14413,13 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -14426,7 +14427,7 @@
         <v>19</v>
       </c>
       <c r="Q96" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>19</v>
@@ -14471,7 +14472,7 @@
         <v>19</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14492,7 +14493,7 @@
         <v>19</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>19</v>
@@ -14503,10 +14504,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14529,13 +14530,13 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14586,7 +14587,7 @@
         <v>19</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14607,7 +14608,7 @@
         <v>19</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>19</v>
@@ -14618,10 +14619,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14644,13 +14645,13 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14701,7 +14702,7 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14722,7 +14723,7 @@
         <v>19</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>19</v>
@@ -14733,10 +14734,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14759,13 +14760,13 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14816,7 +14817,7 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14837,7 +14838,7 @@
         <v>19</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>19</v>
@@ -14848,10 +14849,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14877,10 +14878,10 @@
         <v>108</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14910,10 +14911,10 @@
         <v>220</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>19</v>
@@ -14931,7 +14932,7 @@
         <v>19</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14952,7 +14953,7 @@
         <v>19</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>19</v>
@@ -14963,10 +14964,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14992,13 +14993,13 @@
         <v>108</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -15028,7 +15029,7 @@
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>19</v>
@@ -15046,7 +15047,7 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -15078,10 +15079,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15104,16 +15105,16 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -15163,7 +15164,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -15195,10 +15196,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15224,16 +15225,16 @@
         <v>108</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>19</v>
@@ -15261,10 +15262,10 @@
         <v>220</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>19</v>
@@ -15282,7 +15283,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -15303,7 +15304,7 @@
         <v>19</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>19</v>
@@ -15314,10 +15315,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15340,13 +15341,13 @@
         <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15397,7 +15398,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -15418,7 +15419,7 @@
         <v>19</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>19</v>
@@ -15429,10 +15430,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15458,13 +15459,13 @@
         <v>167</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15493,10 +15494,10 @@
         <v>112</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>19</v>
@@ -15514,7 +15515,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15535,7 +15536,7 @@
         <v>19</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>19</v>
@@ -15546,10 +15547,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15572,16 +15573,16 @@
         <v>89</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15610,10 +15611,10 @@
         <v>231</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>19</v>
@@ -15631,7 +15632,7 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15652,21 +15653,21 @@
         <v>19</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15692,16 +15693,16 @@
         <v>167</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>19</v>
@@ -15729,10 +15730,10 @@
         <v>231</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>19</v>
@@ -15750,7 +15751,7 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15771,21 +15772,21 @@
         <v>19</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15811,14 +15812,14 @@
         <v>167</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>19</v>
@@ -15847,7 +15848,7 @@
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>19</v>
@@ -15865,7 +15866,7 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15886,21 +15887,21 @@
         <v>19</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15926,16 +15927,16 @@
         <v>167</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>19</v>
@@ -15964,7 +15965,7 @@
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>19</v>
@@ -15982,7 +15983,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -16003,21 +16004,21 @@
         <v>19</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16040,13 +16041,13 @@
         <v>89</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -16097,7 +16098,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
@@ -16124,15 +16125,15 @@
         <v>19</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16244,10 +16245,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16361,13 +16362,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="B113" t="s" s="2">
-        <v>700</v>
-      </c>
       <c r="C113" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>19</v>
@@ -16389,13 +16390,13 @@
         <v>19</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -16478,10 +16479,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16507,14 +16508,14 @@
         <v>167</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>19</v>
@@ -16542,10 +16543,10 @@
         <v>231</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>19</v>
@@ -16563,7 +16564,7 @@
         <v>19</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -16590,15 +16591,15 @@
         <v>19</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16621,19 +16622,19 @@
         <v>89</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>19</v>
@@ -16680,7 +16681,7 @@
         <v>280</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -16701,24 +16702,24 @@
         <v>19</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>19</v>
@@ -16740,19 +16741,19 @@
         <v>89</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>19</v>
@@ -16801,7 +16802,7 @@
         <v>19</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -16822,24 +16823,24 @@
         <v>19</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>19</v>
@@ -16861,19 +16862,19 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>19</v>
@@ -16922,7 +16923,7 @@
         <v>19</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -16943,21 +16944,21 @@
         <v>19</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16980,19 +16981,19 @@
         <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>19</v>
@@ -17039,7 +17040,7 @@
         <v>280</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -17060,24 +17061,24 @@
         <v>19</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>19</v>
@@ -17099,19 +17100,19 @@
         <v>89</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>19</v>
@@ -17160,7 +17161,7 @@
         <v>19</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -17181,24 +17182,24 @@
         <v>19</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>19</v>
@@ -17220,19 +17221,19 @@
         <v>89</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>19</v>
@@ -17281,7 +17282,7 @@
         <v>19</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -17302,24 +17303,24 @@
         <v>19</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>19</v>
@@ -17341,19 +17342,19 @@
         <v>89</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>19</v>
@@ -17402,7 +17403,7 @@
         <v>19</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -17423,21 +17424,21 @@
         <v>19</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17460,19 +17461,19 @@
         <v>89</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>19</v>
@@ -17521,7 +17522,7 @@
         <v>19</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -17542,21 +17543,21 @@
         <v>19</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17668,10 +17669,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17785,10 +17786,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17811,13 +17812,13 @@
         <v>89</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17868,7 +17869,7 @@
         <v>19</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -17889,7 +17890,7 @@
         <v>19</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>19</v>
@@ -17900,10 +17901,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17926,13 +17927,13 @@
         <v>89</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17983,7 +17984,7 @@
         <v>19</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -18004,7 +18005,7 @@
         <v>19</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>19</v>
@@ -18015,10 +18016,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18041,19 +18042,19 @@
         <v>89</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>19</v>
@@ -18102,7 +18103,7 @@
         <v>19</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -18123,7 +18124,7 @@
         <v>19</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>19</v>
@@ -18134,10 +18135,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18160,17 +18161,17 @@
         <v>89</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>19</v>
@@ -18219,7 +18220,7 @@
         <v>19</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>78</v>
@@ -18240,7 +18241,7 @@
         <v>19</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>19</v>
@@ -18251,10 +18252,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18277,13 +18278,13 @@
         <v>19</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18334,7 +18335,7 @@
         <v>19</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -18352,10 +18353,10 @@
         <v>19</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>19</v>
@@ -18366,10 +18367,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18481,10 +18482,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18598,14 +18599,14 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -18627,10 +18628,10 @@
         <v>133</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N132" t="s" s="2">
         <v>181</v>
@@ -18685,7 +18686,7 @@
         <v>19</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -18717,10 +18718,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18743,16 +18744,16 @@
         <v>19</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -18802,7 +18803,7 @@
         <v>19</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -18823,7 +18824,7 @@
         <v>19</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>19</v>
@@ -18834,10 +18835,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18949,10 +18950,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19066,14 +19067,14 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -19095,10 +19096,10 @@
         <v>133</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N136" t="s" s="2">
         <v>181</v>
@@ -19153,7 +19154,7 @@
         <v>19</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>78</v>
@@ -19185,10 +19186,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19211,13 +19212,13 @@
         <v>19</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19268,7 +19269,7 @@
         <v>19</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -19289,7 +19290,7 @@
         <v>19</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>19</v>
@@ -19300,10 +19301,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19326,13 +19327,13 @@
         <v>19</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -19383,7 +19384,7 @@
         <v>19</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>78</v>
@@ -19404,7 +19405,7 @@
         <v>19</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>19</v>
@@ -19415,10 +19416,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19441,13 +19442,13 @@
         <v>19</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -19498,7 +19499,7 @@
         <v>19</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>78</v>
@@ -19519,7 +19520,7 @@
         <v>19</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>19</v>
@@ -19530,10 +19531,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19556,19 +19557,19 @@
         <v>19</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>19</v>
@@ -19617,7 +19618,7 @@
         <v>19</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -19635,10 +19636,10 @@
         <v>19</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>19</v>
@@ -19649,10 +19650,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19764,10 +19765,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19881,10 +19882,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19907,16 +19908,16 @@
         <v>89</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19966,7 +19967,7 @@
         <v>19</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>78</v>
@@ -19975,7 +19976,7 @@
         <v>88</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>100</v>
@@ -19987,21 +19988,21 @@
         <v>19</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20024,23 +20025,23 @@
         <v>89</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q144" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R144" t="s" s="2">
         <v>19</v>
@@ -20085,7 +20086,7 @@
         <v>19</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -20094,7 +20095,7 @@
         <v>88</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>100</v>
@@ -20106,21 +20107,21 @@
         <v>19</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20143,16 +20144,16 @@
         <v>19</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -20202,7 +20203,7 @@
         <v>19</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -20220,24 +20221,24 @@
         <v>19</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20260,13 +20261,13 @@
         <v>19</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20317,7 +20318,7 @@
         <v>19</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>78</v>
@@ -20335,24 +20336,24 @@
         <v>19</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20375,16 +20376,16 @@
         <v>19</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20434,7 +20435,7 @@
         <v>19</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -20452,10 +20453,10 @@
         <v>19</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>19</v>
@@ -20466,10 +20467,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20581,10 +20582,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20698,10 +20699,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20724,19 +20725,19 @@
         <v>89</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>19</v>
@@ -20785,7 +20786,7 @@
         <v>19</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -20806,21 +20807,21 @@
         <v>19</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20846,20 +20847,20 @@
         <v>108</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q151" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="R151" t="s" s="2">
         <v>19</v>
@@ -20883,10 +20884,10 @@
         <v>220</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>19</v>
@@ -20904,7 +20905,7 @@
         <v>19</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
@@ -20925,21 +20926,21 @@
         <v>19</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20965,14 +20966,14 @@
         <v>148</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>19</v>
@@ -21021,7 +21022,7 @@
         <v>19</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -21042,21 +21043,21 @@
         <v>19</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21082,14 +21083,14 @@
         <v>102</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>19</v>
@@ -21138,7 +21139,7 @@
         <v>19</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>78</v>
@@ -21147,7 +21148,7 @@
         <v>88</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>100</v>
@@ -21159,21 +21160,21 @@
         <v>19</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21199,16 +21200,16 @@
         <v>108</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>19</v>
@@ -21257,7 +21258,7 @@
         <v>19</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -21278,21 +21279,21 @@
         <v>19</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21315,13 +21316,13 @@
         <v>19</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -21372,7 +21373,7 @@
         <v>19</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -21393,10 +21394,10 @@
         <v>19</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>19</v>
@@ -21404,10 +21405,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21430,13 +21431,13 @@
         <v>19</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21487,7 +21488,7 @@
         <v>19</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -21505,10 +21506,10 @@
         <v>19</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>19</v>
@@ -21519,10 +21520,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21634,10 +21635,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21751,14 +21752,14 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -21780,10 +21781,10 @@
         <v>133</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>181</v>
@@ -21838,7 +21839,7 @@
         <v>19</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -21870,10 +21871,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21896,16 +21897,16 @@
         <v>19</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21934,10 +21935,10 @@
         <v>231</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>19</v>
@@ -21955,7 +21956,7 @@
         <v>19</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>88</v>
@@ -21973,24 +21974,24 @@
         <v>19</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22016,10 +22017,10 @@
         <v>167</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22049,10 +22050,10 @@
         <v>231</v>
       </c>
       <c r="Y161" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>19</v>
@@ -22070,7 +22071,7 @@
         <v>19</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>78</v>
@@ -22088,24 +22089,24 @@
         <v>19</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22128,13 +22129,13 @@
         <v>19</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -22185,7 +22186,7 @@
         <v>19</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>78</v>
@@ -22200,13 +22201,13 @@
         <v>100</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>19</v>
@@ -22217,14 +22218,14 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
@@ -22243,16 +22244,16 @@
         <v>19</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
@@ -22302,7 +22303,7 @@
         <v>19</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>78</v>
@@ -22323,7 +22324,7 @@
         <v>19</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>19</v>
@@ -22334,10 +22335,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22360,16 +22361,16 @@
         <v>19</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
@@ -22419,7 +22420,7 @@
         <v>19</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -22434,13 +22435,13 @@
         <v>100</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>19</v>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T15:57:28+00:00</t>
+    <t>2025-07-08T16:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-inpatient-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T16:24:33+00:00</t>
+    <t>2025-07-09T16:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
